--- a/open_card_sorting/Opencard-Participant1.xlsx
+++ b/open_card_sorting/Opencard-Participant1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almag\Coding\msr_2024_challenge_gpt\manual_analysis\open_card_sorting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almag\Coding\MLSD-in-the-LLM-Era\open_card_sorting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24721E53-9002-49B9-9BED-E85F9794C883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F7AA09-D19F-468C-A71C-C52E28BBC7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1989,7 +1989,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2053,6 +2053,21 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2148,10 +2163,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2179,8 +2195,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2420,7 +2439,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2436,7 +2455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -2444,7 +2463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2452,7 +2471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -2460,7 +2479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2469,7 +2488,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2478,7 +2497,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -2487,7 +2506,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2496,7 +2515,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -2505,7 +2524,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -2514,7 +2533,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -2523,7 +2542,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -2532,7 +2551,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -2541,7 +2560,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2550,7 +2569,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -2559,7 +2578,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
@@ -2568,7 +2587,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -2577,7 +2596,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
@@ -2586,7 +2605,7 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -2595,7 +2614,7 @@
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -2604,7 +2623,7 @@
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
@@ -2613,7 +2632,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -2622,7 +2641,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -2631,42 +2650,42 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="D33" s="6"/>
@@ -7517,10 +7536,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E302"/>
+  <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7998,7 +8017,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>113</v>
       </c>
@@ -8010,8 +8029,9 @@
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>115</v>
       </c>
@@ -8026,7 +8046,7 @@
       </c>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>117</v>
       </c>
@@ -8041,7 +8061,7 @@
       </c>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>119</v>
       </c>
@@ -8054,7 +8074,7 @@
       <c r="D36" s="10"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>121</v>
       </c>
@@ -8069,7 +8089,7 @@
       </c>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>123</v>
       </c>
@@ -8084,7 +8104,7 @@
       </c>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>125</v>
       </c>
@@ -8099,11 +8119,11 @@
       </c>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="23" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -8114,7 +8134,7 @@
       </c>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>129</v>
       </c>
@@ -8129,7 +8149,7 @@
       </c>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>131</v>
       </c>
@@ -8144,7 +8164,7 @@
       </c>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>133</v>
       </c>
@@ -8157,7 +8177,7 @@
       <c r="D43" s="14"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>135</v>
       </c>
@@ -8174,7 +8194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>137</v>
       </c>
@@ -8189,7 +8209,7 @@
       </c>
       <c r="E45" s="15"/>
     </row>
-    <row r="46" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>139</v>
       </c>
@@ -8204,7 +8224,7 @@
       </c>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>141</v>
       </c>
@@ -8217,7 +8237,7 @@
       <c r="D47" s="14"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>143</v>
       </c>
@@ -12083,268 +12103,268 @@
     <hyperlink ref="B37" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
     <hyperlink ref="B38" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
     <hyperlink ref="B39" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="B51" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="B52" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="B53" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="B54" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="B55" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="B56" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="B57" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
-    <hyperlink ref="B58" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
-    <hyperlink ref="B59" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
-    <hyperlink ref="B60" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
-    <hyperlink ref="B61" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
-    <hyperlink ref="B62" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
-    <hyperlink ref="B63" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
-    <hyperlink ref="B64" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
-    <hyperlink ref="B65" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
-    <hyperlink ref="B66" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
-    <hyperlink ref="B67" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
-    <hyperlink ref="B68" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
-    <hyperlink ref="B69" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
-    <hyperlink ref="B70" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
-    <hyperlink ref="B71" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
-    <hyperlink ref="B72" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
-    <hyperlink ref="B73" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
-    <hyperlink ref="B74" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
-    <hyperlink ref="B75" r:id="rId74" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
-    <hyperlink ref="B76" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
-    <hyperlink ref="B77" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
-    <hyperlink ref="B78" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
-    <hyperlink ref="B79" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
-    <hyperlink ref="B80" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
-    <hyperlink ref="B81" r:id="rId80" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
-    <hyperlink ref="B82" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
-    <hyperlink ref="B83" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
-    <hyperlink ref="B84" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
-    <hyperlink ref="B85" r:id="rId84" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
-    <hyperlink ref="B86" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
-    <hyperlink ref="B87" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
-    <hyperlink ref="B88" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
-    <hyperlink ref="B89" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
-    <hyperlink ref="B90" r:id="rId89" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
-    <hyperlink ref="B91" r:id="rId90" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
-    <hyperlink ref="B92" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
-    <hyperlink ref="B93" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
-    <hyperlink ref="B94" r:id="rId93" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
-    <hyperlink ref="B95" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
-    <hyperlink ref="B96" r:id="rId95" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
-    <hyperlink ref="B97" r:id="rId96" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
-    <hyperlink ref="B98" r:id="rId97" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
-    <hyperlink ref="B99" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
-    <hyperlink ref="B100" r:id="rId99" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
-    <hyperlink ref="B101" r:id="rId100" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
-    <hyperlink ref="B102" r:id="rId101" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
-    <hyperlink ref="B103" r:id="rId102" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
-    <hyperlink ref="B104" r:id="rId103" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
-    <hyperlink ref="B105" r:id="rId104" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
-    <hyperlink ref="B106" r:id="rId105" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
-    <hyperlink ref="B107" r:id="rId106" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
-    <hyperlink ref="B108" r:id="rId107" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
-    <hyperlink ref="B109" r:id="rId108" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
-    <hyperlink ref="B110" r:id="rId109" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
-    <hyperlink ref="B111" r:id="rId110" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
-    <hyperlink ref="B112" r:id="rId111" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
-    <hyperlink ref="B113" r:id="rId112" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
-    <hyperlink ref="B114" r:id="rId113" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
-    <hyperlink ref="B115" r:id="rId114" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
-    <hyperlink ref="B116" r:id="rId115" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
-    <hyperlink ref="B117" r:id="rId116" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
-    <hyperlink ref="B118" r:id="rId117" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
-    <hyperlink ref="B119" r:id="rId118" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
-    <hyperlink ref="B120" r:id="rId119" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
-    <hyperlink ref="B121" r:id="rId120" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
-    <hyperlink ref="B122" r:id="rId121" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
-    <hyperlink ref="B123" r:id="rId122" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
-    <hyperlink ref="B124" r:id="rId123" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
-    <hyperlink ref="B125" r:id="rId124" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
-    <hyperlink ref="B126" r:id="rId125" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
-    <hyperlink ref="B127" r:id="rId126" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
-    <hyperlink ref="B128" r:id="rId127" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
-    <hyperlink ref="B129" r:id="rId128" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
-    <hyperlink ref="B130" r:id="rId129" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
-    <hyperlink ref="B131" r:id="rId130" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
-    <hyperlink ref="B132" r:id="rId131" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
-    <hyperlink ref="B133" r:id="rId132" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
-    <hyperlink ref="B134" r:id="rId133" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
-    <hyperlink ref="B135" r:id="rId134" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
-    <hyperlink ref="B136" r:id="rId135" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
-    <hyperlink ref="B137" r:id="rId136" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
-    <hyperlink ref="B138" r:id="rId137" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
-    <hyperlink ref="B139" r:id="rId138" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
-    <hyperlink ref="B140" r:id="rId139" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
-    <hyperlink ref="B141" r:id="rId140" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
-    <hyperlink ref="B142" r:id="rId141" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
-    <hyperlink ref="B143" r:id="rId142" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
-    <hyperlink ref="B144" r:id="rId143" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
-    <hyperlink ref="B145" r:id="rId144" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
-    <hyperlink ref="B146" r:id="rId145" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
-    <hyperlink ref="B147" r:id="rId146" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
-    <hyperlink ref="B148" r:id="rId147" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
-    <hyperlink ref="B149" r:id="rId148" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
-    <hyperlink ref="B150" r:id="rId149" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
-    <hyperlink ref="B151" r:id="rId150" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
-    <hyperlink ref="B152" r:id="rId151" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
-    <hyperlink ref="B153" r:id="rId152" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
-    <hyperlink ref="B154" r:id="rId153" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
-    <hyperlink ref="B155" r:id="rId154" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
-    <hyperlink ref="B156" r:id="rId155" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
-    <hyperlink ref="B157" r:id="rId156" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
-    <hyperlink ref="B158" r:id="rId157" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
-    <hyperlink ref="B159" r:id="rId158" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
-    <hyperlink ref="B160" r:id="rId159" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
-    <hyperlink ref="B161" r:id="rId160" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
-    <hyperlink ref="B162" r:id="rId161" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
-    <hyperlink ref="B163" r:id="rId162" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
-    <hyperlink ref="B164" r:id="rId163" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
-    <hyperlink ref="B165" r:id="rId164" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
-    <hyperlink ref="B166" r:id="rId165" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
-    <hyperlink ref="B167" r:id="rId166" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
-    <hyperlink ref="B168" r:id="rId167" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
-    <hyperlink ref="B169" r:id="rId168" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
-    <hyperlink ref="B170" r:id="rId169" xr:uid="{00000000-0004-0000-0200-0000A8000000}"/>
-    <hyperlink ref="B171" r:id="rId170" xr:uid="{00000000-0004-0000-0200-0000A9000000}"/>
-    <hyperlink ref="B172" r:id="rId171" xr:uid="{00000000-0004-0000-0200-0000AA000000}"/>
-    <hyperlink ref="B173" r:id="rId172" xr:uid="{00000000-0004-0000-0200-0000AB000000}"/>
-    <hyperlink ref="B174" r:id="rId173" xr:uid="{00000000-0004-0000-0200-0000AC000000}"/>
-    <hyperlink ref="B175" r:id="rId174" xr:uid="{00000000-0004-0000-0200-0000AD000000}"/>
-    <hyperlink ref="B176" r:id="rId175" xr:uid="{00000000-0004-0000-0200-0000AE000000}"/>
-    <hyperlink ref="B177" r:id="rId176" xr:uid="{00000000-0004-0000-0200-0000AF000000}"/>
-    <hyperlink ref="B178" r:id="rId177" xr:uid="{00000000-0004-0000-0200-0000B0000000}"/>
-    <hyperlink ref="B179" r:id="rId178" xr:uid="{00000000-0004-0000-0200-0000B1000000}"/>
-    <hyperlink ref="B180" r:id="rId179" xr:uid="{00000000-0004-0000-0200-0000B2000000}"/>
-    <hyperlink ref="B181" r:id="rId180" xr:uid="{00000000-0004-0000-0200-0000B3000000}"/>
-    <hyperlink ref="B182" r:id="rId181" xr:uid="{00000000-0004-0000-0200-0000B4000000}"/>
-    <hyperlink ref="B183" r:id="rId182" xr:uid="{00000000-0004-0000-0200-0000B5000000}"/>
-    <hyperlink ref="B184" r:id="rId183" xr:uid="{00000000-0004-0000-0200-0000B6000000}"/>
-    <hyperlink ref="B185" r:id="rId184" xr:uid="{00000000-0004-0000-0200-0000B7000000}"/>
-    <hyperlink ref="B186" r:id="rId185" xr:uid="{00000000-0004-0000-0200-0000B8000000}"/>
-    <hyperlink ref="B187" r:id="rId186" xr:uid="{00000000-0004-0000-0200-0000B9000000}"/>
-    <hyperlink ref="B188" r:id="rId187" xr:uid="{00000000-0004-0000-0200-0000BA000000}"/>
-    <hyperlink ref="B189" r:id="rId188" xr:uid="{00000000-0004-0000-0200-0000BB000000}"/>
-    <hyperlink ref="B190" r:id="rId189" xr:uid="{00000000-0004-0000-0200-0000BC000000}"/>
-    <hyperlink ref="B191" r:id="rId190" xr:uid="{00000000-0004-0000-0200-0000BD000000}"/>
-    <hyperlink ref="B192" r:id="rId191" xr:uid="{00000000-0004-0000-0200-0000BE000000}"/>
-    <hyperlink ref="B193" r:id="rId192" xr:uid="{00000000-0004-0000-0200-0000BF000000}"/>
-    <hyperlink ref="B194" r:id="rId193" xr:uid="{00000000-0004-0000-0200-0000C0000000}"/>
-    <hyperlink ref="B195" r:id="rId194" xr:uid="{00000000-0004-0000-0200-0000C1000000}"/>
-    <hyperlink ref="B196" r:id="rId195" xr:uid="{00000000-0004-0000-0200-0000C2000000}"/>
-    <hyperlink ref="B197" r:id="rId196" xr:uid="{00000000-0004-0000-0200-0000C3000000}"/>
-    <hyperlink ref="B198" r:id="rId197" xr:uid="{00000000-0004-0000-0200-0000C4000000}"/>
-    <hyperlink ref="B199" r:id="rId198" xr:uid="{00000000-0004-0000-0200-0000C5000000}"/>
-    <hyperlink ref="B200" r:id="rId199" xr:uid="{00000000-0004-0000-0200-0000C6000000}"/>
-    <hyperlink ref="B201" r:id="rId200" xr:uid="{00000000-0004-0000-0200-0000C7000000}"/>
-    <hyperlink ref="B202" r:id="rId201" xr:uid="{00000000-0004-0000-0200-0000C8000000}"/>
-    <hyperlink ref="B203" r:id="rId202" xr:uid="{00000000-0004-0000-0200-0000C9000000}"/>
-    <hyperlink ref="B204" r:id="rId203" xr:uid="{00000000-0004-0000-0200-0000CA000000}"/>
-    <hyperlink ref="B205" r:id="rId204" xr:uid="{00000000-0004-0000-0200-0000CB000000}"/>
-    <hyperlink ref="B206" r:id="rId205" xr:uid="{00000000-0004-0000-0200-0000CC000000}"/>
-    <hyperlink ref="B207" r:id="rId206" xr:uid="{00000000-0004-0000-0200-0000CD000000}"/>
-    <hyperlink ref="B208" r:id="rId207" xr:uid="{00000000-0004-0000-0200-0000CE000000}"/>
-    <hyperlink ref="B209" r:id="rId208" xr:uid="{00000000-0004-0000-0200-0000CF000000}"/>
-    <hyperlink ref="B210" r:id="rId209" xr:uid="{00000000-0004-0000-0200-0000D0000000}"/>
-    <hyperlink ref="B211" r:id="rId210" xr:uid="{00000000-0004-0000-0200-0000D1000000}"/>
-    <hyperlink ref="B212" r:id="rId211" xr:uid="{00000000-0004-0000-0200-0000D2000000}"/>
-    <hyperlink ref="B213" r:id="rId212" xr:uid="{00000000-0004-0000-0200-0000D3000000}"/>
-    <hyperlink ref="B214" r:id="rId213" xr:uid="{00000000-0004-0000-0200-0000D4000000}"/>
-    <hyperlink ref="B215" r:id="rId214" xr:uid="{00000000-0004-0000-0200-0000D5000000}"/>
-    <hyperlink ref="B216" r:id="rId215" xr:uid="{00000000-0004-0000-0200-0000D6000000}"/>
-    <hyperlink ref="B217" r:id="rId216" xr:uid="{00000000-0004-0000-0200-0000D7000000}"/>
-    <hyperlink ref="B218" r:id="rId217" xr:uid="{00000000-0004-0000-0200-0000D8000000}"/>
-    <hyperlink ref="B219" r:id="rId218" xr:uid="{00000000-0004-0000-0200-0000D9000000}"/>
-    <hyperlink ref="B220" r:id="rId219" xr:uid="{00000000-0004-0000-0200-0000DA000000}"/>
-    <hyperlink ref="B221" r:id="rId220" xr:uid="{00000000-0004-0000-0200-0000DB000000}"/>
-    <hyperlink ref="B222" r:id="rId221" xr:uid="{00000000-0004-0000-0200-0000DC000000}"/>
-    <hyperlink ref="B223" r:id="rId222" xr:uid="{00000000-0004-0000-0200-0000DD000000}"/>
-    <hyperlink ref="B224" r:id="rId223" xr:uid="{00000000-0004-0000-0200-0000DE000000}"/>
-    <hyperlink ref="B225" r:id="rId224" xr:uid="{00000000-0004-0000-0200-0000DF000000}"/>
-    <hyperlink ref="B226" r:id="rId225" xr:uid="{00000000-0004-0000-0200-0000E0000000}"/>
-    <hyperlink ref="B227" r:id="rId226" xr:uid="{00000000-0004-0000-0200-0000E1000000}"/>
-    <hyperlink ref="B228" r:id="rId227" xr:uid="{00000000-0004-0000-0200-0000E2000000}"/>
-    <hyperlink ref="B229" r:id="rId228" xr:uid="{00000000-0004-0000-0200-0000E3000000}"/>
-    <hyperlink ref="B230" r:id="rId229" xr:uid="{00000000-0004-0000-0200-0000E4000000}"/>
-    <hyperlink ref="B231" r:id="rId230" xr:uid="{00000000-0004-0000-0200-0000E5000000}"/>
-    <hyperlink ref="B232" r:id="rId231" xr:uid="{00000000-0004-0000-0200-0000E6000000}"/>
-    <hyperlink ref="B233" r:id="rId232" xr:uid="{00000000-0004-0000-0200-0000E7000000}"/>
-    <hyperlink ref="B234" r:id="rId233" xr:uid="{00000000-0004-0000-0200-0000E8000000}"/>
-    <hyperlink ref="B235" r:id="rId234" xr:uid="{00000000-0004-0000-0200-0000E9000000}"/>
-    <hyperlink ref="B236" r:id="rId235" xr:uid="{00000000-0004-0000-0200-0000EA000000}"/>
-    <hyperlink ref="B237" r:id="rId236" xr:uid="{00000000-0004-0000-0200-0000EB000000}"/>
-    <hyperlink ref="B238" r:id="rId237" xr:uid="{00000000-0004-0000-0200-0000EC000000}"/>
-    <hyperlink ref="B239" r:id="rId238" xr:uid="{00000000-0004-0000-0200-0000ED000000}"/>
-    <hyperlink ref="B240" r:id="rId239" xr:uid="{00000000-0004-0000-0200-0000EE000000}"/>
-    <hyperlink ref="B241" r:id="rId240" xr:uid="{00000000-0004-0000-0200-0000EF000000}"/>
-    <hyperlink ref="B242" r:id="rId241" xr:uid="{00000000-0004-0000-0200-0000F0000000}"/>
-    <hyperlink ref="B243" r:id="rId242" xr:uid="{00000000-0004-0000-0200-0000F1000000}"/>
-    <hyperlink ref="B244" r:id="rId243" xr:uid="{00000000-0004-0000-0200-0000F2000000}"/>
-    <hyperlink ref="B245" r:id="rId244" xr:uid="{00000000-0004-0000-0200-0000F3000000}"/>
-    <hyperlink ref="B246" r:id="rId245" xr:uid="{00000000-0004-0000-0200-0000F4000000}"/>
-    <hyperlink ref="B247" r:id="rId246" xr:uid="{00000000-0004-0000-0200-0000F5000000}"/>
-    <hyperlink ref="B248" r:id="rId247" xr:uid="{00000000-0004-0000-0200-0000F6000000}"/>
-    <hyperlink ref="B249" r:id="rId248" xr:uid="{00000000-0004-0000-0200-0000F7000000}"/>
-    <hyperlink ref="B250" r:id="rId249" xr:uid="{00000000-0004-0000-0200-0000F8000000}"/>
-    <hyperlink ref="B251" r:id="rId250" xr:uid="{00000000-0004-0000-0200-0000F9000000}"/>
-    <hyperlink ref="B252" r:id="rId251" xr:uid="{00000000-0004-0000-0200-0000FA000000}"/>
-    <hyperlink ref="B253" r:id="rId252" xr:uid="{00000000-0004-0000-0200-0000FB000000}"/>
-    <hyperlink ref="B254" r:id="rId253" xr:uid="{00000000-0004-0000-0200-0000FC000000}"/>
-    <hyperlink ref="B255" r:id="rId254" xr:uid="{00000000-0004-0000-0200-0000FD000000}"/>
-    <hyperlink ref="B256" r:id="rId255" xr:uid="{00000000-0004-0000-0200-0000FE000000}"/>
-    <hyperlink ref="B257" r:id="rId256" xr:uid="{00000000-0004-0000-0200-0000FF000000}"/>
-    <hyperlink ref="B258" r:id="rId257" xr:uid="{00000000-0004-0000-0200-000000010000}"/>
-    <hyperlink ref="B259" r:id="rId258" xr:uid="{00000000-0004-0000-0200-000001010000}"/>
-    <hyperlink ref="B260" r:id="rId259" xr:uid="{00000000-0004-0000-0200-000002010000}"/>
-    <hyperlink ref="B261" r:id="rId260" xr:uid="{00000000-0004-0000-0200-000003010000}"/>
-    <hyperlink ref="B262" r:id="rId261" xr:uid="{00000000-0004-0000-0200-000004010000}"/>
-    <hyperlink ref="B263" r:id="rId262" xr:uid="{00000000-0004-0000-0200-000005010000}"/>
-    <hyperlink ref="B264" r:id="rId263" xr:uid="{00000000-0004-0000-0200-000006010000}"/>
-    <hyperlink ref="B265" r:id="rId264" xr:uid="{00000000-0004-0000-0200-000007010000}"/>
-    <hyperlink ref="B266" r:id="rId265" xr:uid="{00000000-0004-0000-0200-000008010000}"/>
-    <hyperlink ref="B267" r:id="rId266" xr:uid="{00000000-0004-0000-0200-000009010000}"/>
-    <hyperlink ref="B268" r:id="rId267" xr:uid="{00000000-0004-0000-0200-00000A010000}"/>
-    <hyperlink ref="B269" r:id="rId268" xr:uid="{00000000-0004-0000-0200-00000B010000}"/>
-    <hyperlink ref="B270" r:id="rId269" xr:uid="{00000000-0004-0000-0200-00000C010000}"/>
-    <hyperlink ref="B271" r:id="rId270" xr:uid="{00000000-0004-0000-0200-00000D010000}"/>
-    <hyperlink ref="B272" r:id="rId271" xr:uid="{00000000-0004-0000-0200-00000E010000}"/>
-    <hyperlink ref="B273" r:id="rId272" xr:uid="{00000000-0004-0000-0200-00000F010000}"/>
-    <hyperlink ref="B274" r:id="rId273" xr:uid="{00000000-0004-0000-0200-000010010000}"/>
-    <hyperlink ref="B275" r:id="rId274" xr:uid="{00000000-0004-0000-0200-000011010000}"/>
-    <hyperlink ref="B276" r:id="rId275" xr:uid="{00000000-0004-0000-0200-000012010000}"/>
-    <hyperlink ref="B277" r:id="rId276" xr:uid="{00000000-0004-0000-0200-000013010000}"/>
-    <hyperlink ref="B278" r:id="rId277" xr:uid="{00000000-0004-0000-0200-000014010000}"/>
-    <hyperlink ref="B279" r:id="rId278" xr:uid="{00000000-0004-0000-0200-000015010000}"/>
-    <hyperlink ref="B280" r:id="rId279" xr:uid="{00000000-0004-0000-0200-000016010000}"/>
-    <hyperlink ref="B281" r:id="rId280" xr:uid="{00000000-0004-0000-0200-000017010000}"/>
-    <hyperlink ref="B282" r:id="rId281" xr:uid="{00000000-0004-0000-0200-000018010000}"/>
-    <hyperlink ref="B283" r:id="rId282" xr:uid="{00000000-0004-0000-0200-000019010000}"/>
-    <hyperlink ref="B284" r:id="rId283" xr:uid="{00000000-0004-0000-0200-00001A010000}"/>
-    <hyperlink ref="B285" r:id="rId284" xr:uid="{00000000-0004-0000-0200-00001B010000}"/>
-    <hyperlink ref="B286" r:id="rId285" xr:uid="{00000000-0004-0000-0200-00001C010000}"/>
-    <hyperlink ref="B287" r:id="rId286" xr:uid="{00000000-0004-0000-0200-00001D010000}"/>
-    <hyperlink ref="B288" r:id="rId287" xr:uid="{00000000-0004-0000-0200-00001E010000}"/>
-    <hyperlink ref="B289" r:id="rId288" xr:uid="{00000000-0004-0000-0200-00001F010000}"/>
-    <hyperlink ref="B290" r:id="rId289" xr:uid="{00000000-0004-0000-0200-000020010000}"/>
-    <hyperlink ref="B291" r:id="rId290" xr:uid="{00000000-0004-0000-0200-000021010000}"/>
-    <hyperlink ref="B292" r:id="rId291" xr:uid="{00000000-0004-0000-0200-000022010000}"/>
-    <hyperlink ref="B293" r:id="rId292" xr:uid="{00000000-0004-0000-0200-000023010000}"/>
-    <hyperlink ref="B294" r:id="rId293" xr:uid="{00000000-0004-0000-0200-000024010000}"/>
-    <hyperlink ref="B295" r:id="rId294" xr:uid="{00000000-0004-0000-0200-000025010000}"/>
-    <hyperlink ref="B296" r:id="rId295" xr:uid="{00000000-0004-0000-0200-000026010000}"/>
-    <hyperlink ref="B297" r:id="rId296" xr:uid="{00000000-0004-0000-0200-000027010000}"/>
-    <hyperlink ref="B298" r:id="rId297" xr:uid="{00000000-0004-0000-0200-000028010000}"/>
-    <hyperlink ref="B299" r:id="rId298" xr:uid="{00000000-0004-0000-0200-000029010000}"/>
-    <hyperlink ref="B300" r:id="rId299" xr:uid="{00000000-0004-0000-0200-00002A010000}"/>
-    <hyperlink ref="B301" r:id="rId300" xr:uid="{00000000-0004-0000-0200-00002B010000}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="B47" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="B48" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="B49" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="B50" r:id="rId48" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="B51" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="B52" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="B53" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="B54" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="B55" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="B56" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="B57" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="B58" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="B59" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="B60" r:id="rId58" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B61" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="B62" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="B63" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="B64" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="B65" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="B66" r:id="rId64" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="B67" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="B68" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000042000000}"/>
+    <hyperlink ref="B69" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000043000000}"/>
+    <hyperlink ref="B70" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="B71" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="B72" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="B73" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="B74" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="B75" r:id="rId73" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="B76" r:id="rId74" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="B77" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="B78" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="B79" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="B80" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="B81" r:id="rId79" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="B82" r:id="rId80" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="B83" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="B84" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="B85" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="B86" r:id="rId84" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="B87" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="B88" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="B89" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="B90" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="B91" r:id="rId89" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="B92" r:id="rId90" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="B93" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="B94" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="B95" r:id="rId93" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="B96" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="B97" r:id="rId95" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="B98" r:id="rId96" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="B99" r:id="rId97" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="B100" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="B101" r:id="rId99" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
+    <hyperlink ref="B102" r:id="rId100" xr:uid="{00000000-0004-0000-0200-000064000000}"/>
+    <hyperlink ref="B103" r:id="rId101" xr:uid="{00000000-0004-0000-0200-000065000000}"/>
+    <hyperlink ref="B104" r:id="rId102" xr:uid="{00000000-0004-0000-0200-000066000000}"/>
+    <hyperlink ref="B105" r:id="rId103" xr:uid="{00000000-0004-0000-0200-000067000000}"/>
+    <hyperlink ref="B106" r:id="rId104" xr:uid="{00000000-0004-0000-0200-000068000000}"/>
+    <hyperlink ref="B107" r:id="rId105" xr:uid="{00000000-0004-0000-0200-000069000000}"/>
+    <hyperlink ref="B108" r:id="rId106" xr:uid="{00000000-0004-0000-0200-00006A000000}"/>
+    <hyperlink ref="B109" r:id="rId107" xr:uid="{00000000-0004-0000-0200-00006B000000}"/>
+    <hyperlink ref="B110" r:id="rId108" xr:uid="{00000000-0004-0000-0200-00006C000000}"/>
+    <hyperlink ref="B111" r:id="rId109" xr:uid="{00000000-0004-0000-0200-00006D000000}"/>
+    <hyperlink ref="B112" r:id="rId110" xr:uid="{00000000-0004-0000-0200-00006E000000}"/>
+    <hyperlink ref="B113" r:id="rId111" xr:uid="{00000000-0004-0000-0200-00006F000000}"/>
+    <hyperlink ref="B114" r:id="rId112" xr:uid="{00000000-0004-0000-0200-000070000000}"/>
+    <hyperlink ref="B115" r:id="rId113" xr:uid="{00000000-0004-0000-0200-000071000000}"/>
+    <hyperlink ref="B116" r:id="rId114" xr:uid="{00000000-0004-0000-0200-000072000000}"/>
+    <hyperlink ref="B117" r:id="rId115" xr:uid="{00000000-0004-0000-0200-000073000000}"/>
+    <hyperlink ref="B118" r:id="rId116" xr:uid="{00000000-0004-0000-0200-000074000000}"/>
+    <hyperlink ref="B119" r:id="rId117" xr:uid="{00000000-0004-0000-0200-000075000000}"/>
+    <hyperlink ref="B120" r:id="rId118" xr:uid="{00000000-0004-0000-0200-000076000000}"/>
+    <hyperlink ref="B121" r:id="rId119" xr:uid="{00000000-0004-0000-0200-000077000000}"/>
+    <hyperlink ref="B122" r:id="rId120" xr:uid="{00000000-0004-0000-0200-000078000000}"/>
+    <hyperlink ref="B123" r:id="rId121" xr:uid="{00000000-0004-0000-0200-000079000000}"/>
+    <hyperlink ref="B124" r:id="rId122" xr:uid="{00000000-0004-0000-0200-00007A000000}"/>
+    <hyperlink ref="B125" r:id="rId123" xr:uid="{00000000-0004-0000-0200-00007B000000}"/>
+    <hyperlink ref="B126" r:id="rId124" xr:uid="{00000000-0004-0000-0200-00007C000000}"/>
+    <hyperlink ref="B127" r:id="rId125" xr:uid="{00000000-0004-0000-0200-00007D000000}"/>
+    <hyperlink ref="B128" r:id="rId126" xr:uid="{00000000-0004-0000-0200-00007E000000}"/>
+    <hyperlink ref="B129" r:id="rId127" xr:uid="{00000000-0004-0000-0200-00007F000000}"/>
+    <hyperlink ref="B130" r:id="rId128" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
+    <hyperlink ref="B131" r:id="rId129" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
+    <hyperlink ref="B132" r:id="rId130" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
+    <hyperlink ref="B133" r:id="rId131" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
+    <hyperlink ref="B134" r:id="rId132" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
+    <hyperlink ref="B135" r:id="rId133" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
+    <hyperlink ref="B136" r:id="rId134" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
+    <hyperlink ref="B137" r:id="rId135" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
+    <hyperlink ref="B138" r:id="rId136" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
+    <hyperlink ref="B139" r:id="rId137" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
+    <hyperlink ref="B140" r:id="rId138" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
+    <hyperlink ref="B141" r:id="rId139" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
+    <hyperlink ref="B142" r:id="rId140" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
+    <hyperlink ref="B143" r:id="rId141" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
+    <hyperlink ref="B144" r:id="rId142" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
+    <hyperlink ref="B145" r:id="rId143" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
+    <hyperlink ref="B146" r:id="rId144" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
+    <hyperlink ref="B147" r:id="rId145" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
+    <hyperlink ref="B148" r:id="rId146" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
+    <hyperlink ref="B149" r:id="rId147" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
+    <hyperlink ref="B150" r:id="rId148" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
+    <hyperlink ref="B151" r:id="rId149" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
+    <hyperlink ref="B152" r:id="rId150" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
+    <hyperlink ref="B153" r:id="rId151" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
+    <hyperlink ref="B154" r:id="rId152" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
+    <hyperlink ref="B155" r:id="rId153" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
+    <hyperlink ref="B156" r:id="rId154" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
+    <hyperlink ref="B157" r:id="rId155" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
+    <hyperlink ref="B158" r:id="rId156" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
+    <hyperlink ref="B159" r:id="rId157" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
+    <hyperlink ref="B160" r:id="rId158" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
+    <hyperlink ref="B161" r:id="rId159" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
+    <hyperlink ref="B162" r:id="rId160" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
+    <hyperlink ref="B163" r:id="rId161" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
+    <hyperlink ref="B164" r:id="rId162" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
+    <hyperlink ref="B165" r:id="rId163" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
+    <hyperlink ref="B166" r:id="rId164" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
+    <hyperlink ref="B167" r:id="rId165" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
+    <hyperlink ref="B168" r:id="rId166" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
+    <hyperlink ref="B169" r:id="rId167" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
+    <hyperlink ref="B170" r:id="rId168" xr:uid="{00000000-0004-0000-0200-0000A8000000}"/>
+    <hyperlink ref="B171" r:id="rId169" xr:uid="{00000000-0004-0000-0200-0000A9000000}"/>
+    <hyperlink ref="B172" r:id="rId170" xr:uid="{00000000-0004-0000-0200-0000AA000000}"/>
+    <hyperlink ref="B173" r:id="rId171" xr:uid="{00000000-0004-0000-0200-0000AB000000}"/>
+    <hyperlink ref="B174" r:id="rId172" xr:uid="{00000000-0004-0000-0200-0000AC000000}"/>
+    <hyperlink ref="B175" r:id="rId173" xr:uid="{00000000-0004-0000-0200-0000AD000000}"/>
+    <hyperlink ref="B176" r:id="rId174" xr:uid="{00000000-0004-0000-0200-0000AE000000}"/>
+    <hyperlink ref="B177" r:id="rId175" xr:uid="{00000000-0004-0000-0200-0000AF000000}"/>
+    <hyperlink ref="B178" r:id="rId176" xr:uid="{00000000-0004-0000-0200-0000B0000000}"/>
+    <hyperlink ref="B179" r:id="rId177" xr:uid="{00000000-0004-0000-0200-0000B1000000}"/>
+    <hyperlink ref="B180" r:id="rId178" xr:uid="{00000000-0004-0000-0200-0000B2000000}"/>
+    <hyperlink ref="B181" r:id="rId179" xr:uid="{00000000-0004-0000-0200-0000B3000000}"/>
+    <hyperlink ref="B182" r:id="rId180" xr:uid="{00000000-0004-0000-0200-0000B4000000}"/>
+    <hyperlink ref="B183" r:id="rId181" xr:uid="{00000000-0004-0000-0200-0000B5000000}"/>
+    <hyperlink ref="B184" r:id="rId182" xr:uid="{00000000-0004-0000-0200-0000B6000000}"/>
+    <hyperlink ref="B185" r:id="rId183" xr:uid="{00000000-0004-0000-0200-0000B7000000}"/>
+    <hyperlink ref="B186" r:id="rId184" xr:uid="{00000000-0004-0000-0200-0000B8000000}"/>
+    <hyperlink ref="B187" r:id="rId185" xr:uid="{00000000-0004-0000-0200-0000B9000000}"/>
+    <hyperlink ref="B188" r:id="rId186" xr:uid="{00000000-0004-0000-0200-0000BA000000}"/>
+    <hyperlink ref="B189" r:id="rId187" xr:uid="{00000000-0004-0000-0200-0000BB000000}"/>
+    <hyperlink ref="B190" r:id="rId188" xr:uid="{00000000-0004-0000-0200-0000BC000000}"/>
+    <hyperlink ref="B191" r:id="rId189" xr:uid="{00000000-0004-0000-0200-0000BD000000}"/>
+    <hyperlink ref="B192" r:id="rId190" xr:uid="{00000000-0004-0000-0200-0000BE000000}"/>
+    <hyperlink ref="B193" r:id="rId191" xr:uid="{00000000-0004-0000-0200-0000BF000000}"/>
+    <hyperlink ref="B194" r:id="rId192" xr:uid="{00000000-0004-0000-0200-0000C0000000}"/>
+    <hyperlink ref="B195" r:id="rId193" xr:uid="{00000000-0004-0000-0200-0000C1000000}"/>
+    <hyperlink ref="B196" r:id="rId194" xr:uid="{00000000-0004-0000-0200-0000C2000000}"/>
+    <hyperlink ref="B197" r:id="rId195" xr:uid="{00000000-0004-0000-0200-0000C3000000}"/>
+    <hyperlink ref="B198" r:id="rId196" xr:uid="{00000000-0004-0000-0200-0000C4000000}"/>
+    <hyperlink ref="B199" r:id="rId197" xr:uid="{00000000-0004-0000-0200-0000C5000000}"/>
+    <hyperlink ref="B200" r:id="rId198" xr:uid="{00000000-0004-0000-0200-0000C6000000}"/>
+    <hyperlink ref="B201" r:id="rId199" xr:uid="{00000000-0004-0000-0200-0000C7000000}"/>
+    <hyperlink ref="B202" r:id="rId200" xr:uid="{00000000-0004-0000-0200-0000C8000000}"/>
+    <hyperlink ref="B203" r:id="rId201" xr:uid="{00000000-0004-0000-0200-0000C9000000}"/>
+    <hyperlink ref="B204" r:id="rId202" xr:uid="{00000000-0004-0000-0200-0000CA000000}"/>
+    <hyperlink ref="B205" r:id="rId203" xr:uid="{00000000-0004-0000-0200-0000CB000000}"/>
+    <hyperlink ref="B206" r:id="rId204" xr:uid="{00000000-0004-0000-0200-0000CC000000}"/>
+    <hyperlink ref="B207" r:id="rId205" xr:uid="{00000000-0004-0000-0200-0000CD000000}"/>
+    <hyperlink ref="B208" r:id="rId206" xr:uid="{00000000-0004-0000-0200-0000CE000000}"/>
+    <hyperlink ref="B209" r:id="rId207" xr:uid="{00000000-0004-0000-0200-0000CF000000}"/>
+    <hyperlink ref="B210" r:id="rId208" xr:uid="{00000000-0004-0000-0200-0000D0000000}"/>
+    <hyperlink ref="B211" r:id="rId209" xr:uid="{00000000-0004-0000-0200-0000D1000000}"/>
+    <hyperlink ref="B212" r:id="rId210" xr:uid="{00000000-0004-0000-0200-0000D2000000}"/>
+    <hyperlink ref="B213" r:id="rId211" xr:uid="{00000000-0004-0000-0200-0000D3000000}"/>
+    <hyperlink ref="B214" r:id="rId212" xr:uid="{00000000-0004-0000-0200-0000D4000000}"/>
+    <hyperlink ref="B215" r:id="rId213" xr:uid="{00000000-0004-0000-0200-0000D5000000}"/>
+    <hyperlink ref="B216" r:id="rId214" xr:uid="{00000000-0004-0000-0200-0000D6000000}"/>
+    <hyperlink ref="B217" r:id="rId215" xr:uid="{00000000-0004-0000-0200-0000D7000000}"/>
+    <hyperlink ref="B218" r:id="rId216" xr:uid="{00000000-0004-0000-0200-0000D8000000}"/>
+    <hyperlink ref="B219" r:id="rId217" xr:uid="{00000000-0004-0000-0200-0000D9000000}"/>
+    <hyperlink ref="B220" r:id="rId218" xr:uid="{00000000-0004-0000-0200-0000DA000000}"/>
+    <hyperlink ref="B221" r:id="rId219" xr:uid="{00000000-0004-0000-0200-0000DB000000}"/>
+    <hyperlink ref="B222" r:id="rId220" xr:uid="{00000000-0004-0000-0200-0000DC000000}"/>
+    <hyperlink ref="B223" r:id="rId221" xr:uid="{00000000-0004-0000-0200-0000DD000000}"/>
+    <hyperlink ref="B224" r:id="rId222" xr:uid="{00000000-0004-0000-0200-0000DE000000}"/>
+    <hyperlink ref="B225" r:id="rId223" xr:uid="{00000000-0004-0000-0200-0000DF000000}"/>
+    <hyperlink ref="B226" r:id="rId224" xr:uid="{00000000-0004-0000-0200-0000E0000000}"/>
+    <hyperlink ref="B227" r:id="rId225" xr:uid="{00000000-0004-0000-0200-0000E1000000}"/>
+    <hyperlink ref="B228" r:id="rId226" xr:uid="{00000000-0004-0000-0200-0000E2000000}"/>
+    <hyperlink ref="B229" r:id="rId227" xr:uid="{00000000-0004-0000-0200-0000E3000000}"/>
+    <hyperlink ref="B230" r:id="rId228" xr:uid="{00000000-0004-0000-0200-0000E4000000}"/>
+    <hyperlink ref="B231" r:id="rId229" xr:uid="{00000000-0004-0000-0200-0000E5000000}"/>
+    <hyperlink ref="B232" r:id="rId230" xr:uid="{00000000-0004-0000-0200-0000E6000000}"/>
+    <hyperlink ref="B233" r:id="rId231" xr:uid="{00000000-0004-0000-0200-0000E7000000}"/>
+    <hyperlink ref="B234" r:id="rId232" xr:uid="{00000000-0004-0000-0200-0000E8000000}"/>
+    <hyperlink ref="B235" r:id="rId233" xr:uid="{00000000-0004-0000-0200-0000E9000000}"/>
+    <hyperlink ref="B236" r:id="rId234" xr:uid="{00000000-0004-0000-0200-0000EA000000}"/>
+    <hyperlink ref="B237" r:id="rId235" xr:uid="{00000000-0004-0000-0200-0000EB000000}"/>
+    <hyperlink ref="B238" r:id="rId236" xr:uid="{00000000-0004-0000-0200-0000EC000000}"/>
+    <hyperlink ref="B239" r:id="rId237" xr:uid="{00000000-0004-0000-0200-0000ED000000}"/>
+    <hyperlink ref="B240" r:id="rId238" xr:uid="{00000000-0004-0000-0200-0000EE000000}"/>
+    <hyperlink ref="B241" r:id="rId239" xr:uid="{00000000-0004-0000-0200-0000EF000000}"/>
+    <hyperlink ref="B242" r:id="rId240" xr:uid="{00000000-0004-0000-0200-0000F0000000}"/>
+    <hyperlink ref="B243" r:id="rId241" xr:uid="{00000000-0004-0000-0200-0000F1000000}"/>
+    <hyperlink ref="B244" r:id="rId242" xr:uid="{00000000-0004-0000-0200-0000F2000000}"/>
+    <hyperlink ref="B245" r:id="rId243" xr:uid="{00000000-0004-0000-0200-0000F3000000}"/>
+    <hyperlink ref="B246" r:id="rId244" xr:uid="{00000000-0004-0000-0200-0000F4000000}"/>
+    <hyperlink ref="B247" r:id="rId245" xr:uid="{00000000-0004-0000-0200-0000F5000000}"/>
+    <hyperlink ref="B248" r:id="rId246" xr:uid="{00000000-0004-0000-0200-0000F6000000}"/>
+    <hyperlink ref="B249" r:id="rId247" xr:uid="{00000000-0004-0000-0200-0000F7000000}"/>
+    <hyperlink ref="B250" r:id="rId248" xr:uid="{00000000-0004-0000-0200-0000F8000000}"/>
+    <hyperlink ref="B251" r:id="rId249" xr:uid="{00000000-0004-0000-0200-0000F9000000}"/>
+    <hyperlink ref="B252" r:id="rId250" xr:uid="{00000000-0004-0000-0200-0000FA000000}"/>
+    <hyperlink ref="B253" r:id="rId251" xr:uid="{00000000-0004-0000-0200-0000FB000000}"/>
+    <hyperlink ref="B254" r:id="rId252" xr:uid="{00000000-0004-0000-0200-0000FC000000}"/>
+    <hyperlink ref="B255" r:id="rId253" xr:uid="{00000000-0004-0000-0200-0000FD000000}"/>
+    <hyperlink ref="B256" r:id="rId254" xr:uid="{00000000-0004-0000-0200-0000FE000000}"/>
+    <hyperlink ref="B257" r:id="rId255" xr:uid="{00000000-0004-0000-0200-0000FF000000}"/>
+    <hyperlink ref="B258" r:id="rId256" xr:uid="{00000000-0004-0000-0200-000000010000}"/>
+    <hyperlink ref="B259" r:id="rId257" xr:uid="{00000000-0004-0000-0200-000001010000}"/>
+    <hyperlink ref="B260" r:id="rId258" xr:uid="{00000000-0004-0000-0200-000002010000}"/>
+    <hyperlink ref="B261" r:id="rId259" xr:uid="{00000000-0004-0000-0200-000003010000}"/>
+    <hyperlink ref="B262" r:id="rId260" xr:uid="{00000000-0004-0000-0200-000004010000}"/>
+    <hyperlink ref="B263" r:id="rId261" xr:uid="{00000000-0004-0000-0200-000005010000}"/>
+    <hyperlink ref="B264" r:id="rId262" xr:uid="{00000000-0004-0000-0200-000006010000}"/>
+    <hyperlink ref="B265" r:id="rId263" xr:uid="{00000000-0004-0000-0200-000007010000}"/>
+    <hyperlink ref="B266" r:id="rId264" xr:uid="{00000000-0004-0000-0200-000008010000}"/>
+    <hyperlink ref="B267" r:id="rId265" xr:uid="{00000000-0004-0000-0200-000009010000}"/>
+    <hyperlink ref="B268" r:id="rId266" xr:uid="{00000000-0004-0000-0200-00000A010000}"/>
+    <hyperlink ref="B269" r:id="rId267" xr:uid="{00000000-0004-0000-0200-00000B010000}"/>
+    <hyperlink ref="B270" r:id="rId268" xr:uid="{00000000-0004-0000-0200-00000C010000}"/>
+    <hyperlink ref="B271" r:id="rId269" xr:uid="{00000000-0004-0000-0200-00000D010000}"/>
+    <hyperlink ref="B272" r:id="rId270" xr:uid="{00000000-0004-0000-0200-00000E010000}"/>
+    <hyperlink ref="B273" r:id="rId271" xr:uid="{00000000-0004-0000-0200-00000F010000}"/>
+    <hyperlink ref="B274" r:id="rId272" xr:uid="{00000000-0004-0000-0200-000010010000}"/>
+    <hyperlink ref="B275" r:id="rId273" xr:uid="{00000000-0004-0000-0200-000011010000}"/>
+    <hyperlink ref="B276" r:id="rId274" xr:uid="{00000000-0004-0000-0200-000012010000}"/>
+    <hyperlink ref="B277" r:id="rId275" xr:uid="{00000000-0004-0000-0200-000013010000}"/>
+    <hyperlink ref="B278" r:id="rId276" xr:uid="{00000000-0004-0000-0200-000014010000}"/>
+    <hyperlink ref="B279" r:id="rId277" xr:uid="{00000000-0004-0000-0200-000015010000}"/>
+    <hyperlink ref="B280" r:id="rId278" xr:uid="{00000000-0004-0000-0200-000016010000}"/>
+    <hyperlink ref="B281" r:id="rId279" xr:uid="{00000000-0004-0000-0200-000017010000}"/>
+    <hyperlink ref="B282" r:id="rId280" xr:uid="{00000000-0004-0000-0200-000018010000}"/>
+    <hyperlink ref="B283" r:id="rId281" xr:uid="{00000000-0004-0000-0200-000019010000}"/>
+    <hyperlink ref="B284" r:id="rId282" xr:uid="{00000000-0004-0000-0200-00001A010000}"/>
+    <hyperlink ref="B285" r:id="rId283" xr:uid="{00000000-0004-0000-0200-00001B010000}"/>
+    <hyperlink ref="B286" r:id="rId284" xr:uid="{00000000-0004-0000-0200-00001C010000}"/>
+    <hyperlink ref="B287" r:id="rId285" xr:uid="{00000000-0004-0000-0200-00001D010000}"/>
+    <hyperlink ref="B288" r:id="rId286" xr:uid="{00000000-0004-0000-0200-00001E010000}"/>
+    <hyperlink ref="B289" r:id="rId287" xr:uid="{00000000-0004-0000-0200-00001F010000}"/>
+    <hyperlink ref="B290" r:id="rId288" xr:uid="{00000000-0004-0000-0200-000020010000}"/>
+    <hyperlink ref="B291" r:id="rId289" xr:uid="{00000000-0004-0000-0200-000021010000}"/>
+    <hyperlink ref="B292" r:id="rId290" xr:uid="{00000000-0004-0000-0200-000022010000}"/>
+    <hyperlink ref="B293" r:id="rId291" xr:uid="{00000000-0004-0000-0200-000023010000}"/>
+    <hyperlink ref="B294" r:id="rId292" xr:uid="{00000000-0004-0000-0200-000024010000}"/>
+    <hyperlink ref="B295" r:id="rId293" xr:uid="{00000000-0004-0000-0200-000025010000}"/>
+    <hyperlink ref="B296" r:id="rId294" xr:uid="{00000000-0004-0000-0200-000026010000}"/>
+    <hyperlink ref="B297" r:id="rId295" xr:uid="{00000000-0004-0000-0200-000027010000}"/>
+    <hyperlink ref="B298" r:id="rId296" xr:uid="{00000000-0004-0000-0200-000028010000}"/>
+    <hyperlink ref="B299" r:id="rId297" xr:uid="{00000000-0004-0000-0200-000029010000}"/>
+    <hyperlink ref="B300" r:id="rId298" xr:uid="{00000000-0004-0000-0200-00002A010000}"/>
+    <hyperlink ref="B301" r:id="rId299" xr:uid="{00000000-0004-0000-0200-00002B010000}"/>
+    <hyperlink ref="B40" r:id="rId300" xr:uid="{2B044738-2866-4B62-9B11-D3EC9011B2BA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>

--- a/open_card_sorting/Opencard-Participant1.xlsx
+++ b/open_card_sorting/Opencard-Participant1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almag\Coding\MLSD-in-the-LLM-Era\open_card_sorting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F7AA09-D19F-468C-A71C-C52E28BBC7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC518A3-4023-4797-9D91-838FF86CEE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2167,7 +2167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2190,13 +2190,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -7538,8 +7539,8 @@
   </sheetPr>
   <dimension ref="A1:F302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7558,11 +7559,11 @@
       <c r="B1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>652</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -8029,7 +8030,9 @@
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
-      <c r="F33" s="24"/>
+      <c r="F33" s="21">
+        <v>136</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -8123,7 +8126,7 @@
       <c r="A40" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="20" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -9480,7 +9483,7 @@
       <c r="A133" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="25" t="s">
         <v>314</v>
       </c>
       <c r="C133" s="14" t="s">
@@ -12195,176 +12198,176 @@
     <hyperlink ref="B130" r:id="rId128" xr:uid="{00000000-0004-0000-0200-000080000000}"/>
     <hyperlink ref="B131" r:id="rId129" xr:uid="{00000000-0004-0000-0200-000081000000}"/>
     <hyperlink ref="B132" r:id="rId130" xr:uid="{00000000-0004-0000-0200-000082000000}"/>
-    <hyperlink ref="B133" r:id="rId131" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
-    <hyperlink ref="B134" r:id="rId132" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
-    <hyperlink ref="B135" r:id="rId133" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
-    <hyperlink ref="B136" r:id="rId134" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
-    <hyperlink ref="B137" r:id="rId135" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
-    <hyperlink ref="B138" r:id="rId136" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
-    <hyperlink ref="B139" r:id="rId137" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
-    <hyperlink ref="B140" r:id="rId138" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
-    <hyperlink ref="B141" r:id="rId139" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
-    <hyperlink ref="B142" r:id="rId140" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
-    <hyperlink ref="B143" r:id="rId141" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
-    <hyperlink ref="B144" r:id="rId142" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
-    <hyperlink ref="B145" r:id="rId143" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
-    <hyperlink ref="B146" r:id="rId144" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
-    <hyperlink ref="B147" r:id="rId145" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
-    <hyperlink ref="B148" r:id="rId146" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
-    <hyperlink ref="B149" r:id="rId147" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
-    <hyperlink ref="B150" r:id="rId148" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
-    <hyperlink ref="B151" r:id="rId149" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
-    <hyperlink ref="B152" r:id="rId150" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
-    <hyperlink ref="B153" r:id="rId151" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
-    <hyperlink ref="B154" r:id="rId152" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
-    <hyperlink ref="B155" r:id="rId153" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
-    <hyperlink ref="B156" r:id="rId154" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
-    <hyperlink ref="B157" r:id="rId155" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
-    <hyperlink ref="B158" r:id="rId156" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
-    <hyperlink ref="B159" r:id="rId157" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
-    <hyperlink ref="B160" r:id="rId158" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
-    <hyperlink ref="B161" r:id="rId159" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
-    <hyperlink ref="B162" r:id="rId160" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
-    <hyperlink ref="B163" r:id="rId161" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
-    <hyperlink ref="B164" r:id="rId162" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
-    <hyperlink ref="B165" r:id="rId163" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
-    <hyperlink ref="B166" r:id="rId164" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
-    <hyperlink ref="B167" r:id="rId165" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
-    <hyperlink ref="B168" r:id="rId166" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
-    <hyperlink ref="B169" r:id="rId167" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
-    <hyperlink ref="B170" r:id="rId168" xr:uid="{00000000-0004-0000-0200-0000A8000000}"/>
-    <hyperlink ref="B171" r:id="rId169" xr:uid="{00000000-0004-0000-0200-0000A9000000}"/>
-    <hyperlink ref="B172" r:id="rId170" xr:uid="{00000000-0004-0000-0200-0000AA000000}"/>
-    <hyperlink ref="B173" r:id="rId171" xr:uid="{00000000-0004-0000-0200-0000AB000000}"/>
-    <hyperlink ref="B174" r:id="rId172" xr:uid="{00000000-0004-0000-0200-0000AC000000}"/>
-    <hyperlink ref="B175" r:id="rId173" xr:uid="{00000000-0004-0000-0200-0000AD000000}"/>
-    <hyperlink ref="B176" r:id="rId174" xr:uid="{00000000-0004-0000-0200-0000AE000000}"/>
-    <hyperlink ref="B177" r:id="rId175" xr:uid="{00000000-0004-0000-0200-0000AF000000}"/>
-    <hyperlink ref="B178" r:id="rId176" xr:uid="{00000000-0004-0000-0200-0000B0000000}"/>
-    <hyperlink ref="B179" r:id="rId177" xr:uid="{00000000-0004-0000-0200-0000B1000000}"/>
-    <hyperlink ref="B180" r:id="rId178" xr:uid="{00000000-0004-0000-0200-0000B2000000}"/>
-    <hyperlink ref="B181" r:id="rId179" xr:uid="{00000000-0004-0000-0200-0000B3000000}"/>
-    <hyperlink ref="B182" r:id="rId180" xr:uid="{00000000-0004-0000-0200-0000B4000000}"/>
-    <hyperlink ref="B183" r:id="rId181" xr:uid="{00000000-0004-0000-0200-0000B5000000}"/>
-    <hyperlink ref="B184" r:id="rId182" xr:uid="{00000000-0004-0000-0200-0000B6000000}"/>
-    <hyperlink ref="B185" r:id="rId183" xr:uid="{00000000-0004-0000-0200-0000B7000000}"/>
-    <hyperlink ref="B186" r:id="rId184" xr:uid="{00000000-0004-0000-0200-0000B8000000}"/>
-    <hyperlink ref="B187" r:id="rId185" xr:uid="{00000000-0004-0000-0200-0000B9000000}"/>
-    <hyperlink ref="B188" r:id="rId186" xr:uid="{00000000-0004-0000-0200-0000BA000000}"/>
-    <hyperlink ref="B189" r:id="rId187" xr:uid="{00000000-0004-0000-0200-0000BB000000}"/>
-    <hyperlink ref="B190" r:id="rId188" xr:uid="{00000000-0004-0000-0200-0000BC000000}"/>
-    <hyperlink ref="B191" r:id="rId189" xr:uid="{00000000-0004-0000-0200-0000BD000000}"/>
-    <hyperlink ref="B192" r:id="rId190" xr:uid="{00000000-0004-0000-0200-0000BE000000}"/>
-    <hyperlink ref="B193" r:id="rId191" xr:uid="{00000000-0004-0000-0200-0000BF000000}"/>
-    <hyperlink ref="B194" r:id="rId192" xr:uid="{00000000-0004-0000-0200-0000C0000000}"/>
-    <hyperlink ref="B195" r:id="rId193" xr:uid="{00000000-0004-0000-0200-0000C1000000}"/>
-    <hyperlink ref="B196" r:id="rId194" xr:uid="{00000000-0004-0000-0200-0000C2000000}"/>
-    <hyperlink ref="B197" r:id="rId195" xr:uid="{00000000-0004-0000-0200-0000C3000000}"/>
-    <hyperlink ref="B198" r:id="rId196" xr:uid="{00000000-0004-0000-0200-0000C4000000}"/>
-    <hyperlink ref="B199" r:id="rId197" xr:uid="{00000000-0004-0000-0200-0000C5000000}"/>
-    <hyperlink ref="B200" r:id="rId198" xr:uid="{00000000-0004-0000-0200-0000C6000000}"/>
-    <hyperlink ref="B201" r:id="rId199" xr:uid="{00000000-0004-0000-0200-0000C7000000}"/>
-    <hyperlink ref="B202" r:id="rId200" xr:uid="{00000000-0004-0000-0200-0000C8000000}"/>
-    <hyperlink ref="B203" r:id="rId201" xr:uid="{00000000-0004-0000-0200-0000C9000000}"/>
-    <hyperlink ref="B204" r:id="rId202" xr:uid="{00000000-0004-0000-0200-0000CA000000}"/>
-    <hyperlink ref="B205" r:id="rId203" xr:uid="{00000000-0004-0000-0200-0000CB000000}"/>
-    <hyperlink ref="B206" r:id="rId204" xr:uid="{00000000-0004-0000-0200-0000CC000000}"/>
-    <hyperlink ref="B207" r:id="rId205" xr:uid="{00000000-0004-0000-0200-0000CD000000}"/>
-    <hyperlink ref="B208" r:id="rId206" xr:uid="{00000000-0004-0000-0200-0000CE000000}"/>
-    <hyperlink ref="B209" r:id="rId207" xr:uid="{00000000-0004-0000-0200-0000CF000000}"/>
-    <hyperlink ref="B210" r:id="rId208" xr:uid="{00000000-0004-0000-0200-0000D0000000}"/>
-    <hyperlink ref="B211" r:id="rId209" xr:uid="{00000000-0004-0000-0200-0000D1000000}"/>
-    <hyperlink ref="B212" r:id="rId210" xr:uid="{00000000-0004-0000-0200-0000D2000000}"/>
-    <hyperlink ref="B213" r:id="rId211" xr:uid="{00000000-0004-0000-0200-0000D3000000}"/>
-    <hyperlink ref="B214" r:id="rId212" xr:uid="{00000000-0004-0000-0200-0000D4000000}"/>
-    <hyperlink ref="B215" r:id="rId213" xr:uid="{00000000-0004-0000-0200-0000D5000000}"/>
-    <hyperlink ref="B216" r:id="rId214" xr:uid="{00000000-0004-0000-0200-0000D6000000}"/>
-    <hyperlink ref="B217" r:id="rId215" xr:uid="{00000000-0004-0000-0200-0000D7000000}"/>
-    <hyperlink ref="B218" r:id="rId216" xr:uid="{00000000-0004-0000-0200-0000D8000000}"/>
-    <hyperlink ref="B219" r:id="rId217" xr:uid="{00000000-0004-0000-0200-0000D9000000}"/>
-    <hyperlink ref="B220" r:id="rId218" xr:uid="{00000000-0004-0000-0200-0000DA000000}"/>
-    <hyperlink ref="B221" r:id="rId219" xr:uid="{00000000-0004-0000-0200-0000DB000000}"/>
-    <hyperlink ref="B222" r:id="rId220" xr:uid="{00000000-0004-0000-0200-0000DC000000}"/>
-    <hyperlink ref="B223" r:id="rId221" xr:uid="{00000000-0004-0000-0200-0000DD000000}"/>
-    <hyperlink ref="B224" r:id="rId222" xr:uid="{00000000-0004-0000-0200-0000DE000000}"/>
-    <hyperlink ref="B225" r:id="rId223" xr:uid="{00000000-0004-0000-0200-0000DF000000}"/>
-    <hyperlink ref="B226" r:id="rId224" xr:uid="{00000000-0004-0000-0200-0000E0000000}"/>
-    <hyperlink ref="B227" r:id="rId225" xr:uid="{00000000-0004-0000-0200-0000E1000000}"/>
-    <hyperlink ref="B228" r:id="rId226" xr:uid="{00000000-0004-0000-0200-0000E2000000}"/>
-    <hyperlink ref="B229" r:id="rId227" xr:uid="{00000000-0004-0000-0200-0000E3000000}"/>
-    <hyperlink ref="B230" r:id="rId228" xr:uid="{00000000-0004-0000-0200-0000E4000000}"/>
-    <hyperlink ref="B231" r:id="rId229" xr:uid="{00000000-0004-0000-0200-0000E5000000}"/>
-    <hyperlink ref="B232" r:id="rId230" xr:uid="{00000000-0004-0000-0200-0000E6000000}"/>
-    <hyperlink ref="B233" r:id="rId231" xr:uid="{00000000-0004-0000-0200-0000E7000000}"/>
-    <hyperlink ref="B234" r:id="rId232" xr:uid="{00000000-0004-0000-0200-0000E8000000}"/>
-    <hyperlink ref="B235" r:id="rId233" xr:uid="{00000000-0004-0000-0200-0000E9000000}"/>
-    <hyperlink ref="B236" r:id="rId234" xr:uid="{00000000-0004-0000-0200-0000EA000000}"/>
-    <hyperlink ref="B237" r:id="rId235" xr:uid="{00000000-0004-0000-0200-0000EB000000}"/>
-    <hyperlink ref="B238" r:id="rId236" xr:uid="{00000000-0004-0000-0200-0000EC000000}"/>
-    <hyperlink ref="B239" r:id="rId237" xr:uid="{00000000-0004-0000-0200-0000ED000000}"/>
-    <hyperlink ref="B240" r:id="rId238" xr:uid="{00000000-0004-0000-0200-0000EE000000}"/>
-    <hyperlink ref="B241" r:id="rId239" xr:uid="{00000000-0004-0000-0200-0000EF000000}"/>
-    <hyperlink ref="B242" r:id="rId240" xr:uid="{00000000-0004-0000-0200-0000F0000000}"/>
-    <hyperlink ref="B243" r:id="rId241" xr:uid="{00000000-0004-0000-0200-0000F1000000}"/>
-    <hyperlink ref="B244" r:id="rId242" xr:uid="{00000000-0004-0000-0200-0000F2000000}"/>
-    <hyperlink ref="B245" r:id="rId243" xr:uid="{00000000-0004-0000-0200-0000F3000000}"/>
-    <hyperlink ref="B246" r:id="rId244" xr:uid="{00000000-0004-0000-0200-0000F4000000}"/>
-    <hyperlink ref="B247" r:id="rId245" xr:uid="{00000000-0004-0000-0200-0000F5000000}"/>
-    <hyperlink ref="B248" r:id="rId246" xr:uid="{00000000-0004-0000-0200-0000F6000000}"/>
-    <hyperlink ref="B249" r:id="rId247" xr:uid="{00000000-0004-0000-0200-0000F7000000}"/>
-    <hyperlink ref="B250" r:id="rId248" xr:uid="{00000000-0004-0000-0200-0000F8000000}"/>
-    <hyperlink ref="B251" r:id="rId249" xr:uid="{00000000-0004-0000-0200-0000F9000000}"/>
-    <hyperlink ref="B252" r:id="rId250" xr:uid="{00000000-0004-0000-0200-0000FA000000}"/>
-    <hyperlink ref="B253" r:id="rId251" xr:uid="{00000000-0004-0000-0200-0000FB000000}"/>
-    <hyperlink ref="B254" r:id="rId252" xr:uid="{00000000-0004-0000-0200-0000FC000000}"/>
-    <hyperlink ref="B255" r:id="rId253" xr:uid="{00000000-0004-0000-0200-0000FD000000}"/>
-    <hyperlink ref="B256" r:id="rId254" xr:uid="{00000000-0004-0000-0200-0000FE000000}"/>
-    <hyperlink ref="B257" r:id="rId255" xr:uid="{00000000-0004-0000-0200-0000FF000000}"/>
-    <hyperlink ref="B258" r:id="rId256" xr:uid="{00000000-0004-0000-0200-000000010000}"/>
-    <hyperlink ref="B259" r:id="rId257" xr:uid="{00000000-0004-0000-0200-000001010000}"/>
-    <hyperlink ref="B260" r:id="rId258" xr:uid="{00000000-0004-0000-0200-000002010000}"/>
-    <hyperlink ref="B261" r:id="rId259" xr:uid="{00000000-0004-0000-0200-000003010000}"/>
-    <hyperlink ref="B262" r:id="rId260" xr:uid="{00000000-0004-0000-0200-000004010000}"/>
-    <hyperlink ref="B263" r:id="rId261" xr:uid="{00000000-0004-0000-0200-000005010000}"/>
-    <hyperlink ref="B264" r:id="rId262" xr:uid="{00000000-0004-0000-0200-000006010000}"/>
-    <hyperlink ref="B265" r:id="rId263" xr:uid="{00000000-0004-0000-0200-000007010000}"/>
-    <hyperlink ref="B266" r:id="rId264" xr:uid="{00000000-0004-0000-0200-000008010000}"/>
-    <hyperlink ref="B267" r:id="rId265" xr:uid="{00000000-0004-0000-0200-000009010000}"/>
-    <hyperlink ref="B268" r:id="rId266" xr:uid="{00000000-0004-0000-0200-00000A010000}"/>
-    <hyperlink ref="B269" r:id="rId267" xr:uid="{00000000-0004-0000-0200-00000B010000}"/>
-    <hyperlink ref="B270" r:id="rId268" xr:uid="{00000000-0004-0000-0200-00000C010000}"/>
-    <hyperlink ref="B271" r:id="rId269" xr:uid="{00000000-0004-0000-0200-00000D010000}"/>
-    <hyperlink ref="B272" r:id="rId270" xr:uid="{00000000-0004-0000-0200-00000E010000}"/>
-    <hyperlink ref="B273" r:id="rId271" xr:uid="{00000000-0004-0000-0200-00000F010000}"/>
-    <hyperlink ref="B274" r:id="rId272" xr:uid="{00000000-0004-0000-0200-000010010000}"/>
-    <hyperlink ref="B275" r:id="rId273" xr:uid="{00000000-0004-0000-0200-000011010000}"/>
-    <hyperlink ref="B276" r:id="rId274" xr:uid="{00000000-0004-0000-0200-000012010000}"/>
-    <hyperlink ref="B277" r:id="rId275" xr:uid="{00000000-0004-0000-0200-000013010000}"/>
-    <hyperlink ref="B278" r:id="rId276" xr:uid="{00000000-0004-0000-0200-000014010000}"/>
-    <hyperlink ref="B279" r:id="rId277" xr:uid="{00000000-0004-0000-0200-000015010000}"/>
-    <hyperlink ref="B280" r:id="rId278" xr:uid="{00000000-0004-0000-0200-000016010000}"/>
-    <hyperlink ref="B281" r:id="rId279" xr:uid="{00000000-0004-0000-0200-000017010000}"/>
-    <hyperlink ref="B282" r:id="rId280" xr:uid="{00000000-0004-0000-0200-000018010000}"/>
-    <hyperlink ref="B283" r:id="rId281" xr:uid="{00000000-0004-0000-0200-000019010000}"/>
-    <hyperlink ref="B284" r:id="rId282" xr:uid="{00000000-0004-0000-0200-00001A010000}"/>
-    <hyperlink ref="B285" r:id="rId283" xr:uid="{00000000-0004-0000-0200-00001B010000}"/>
-    <hyperlink ref="B286" r:id="rId284" xr:uid="{00000000-0004-0000-0200-00001C010000}"/>
-    <hyperlink ref="B287" r:id="rId285" xr:uid="{00000000-0004-0000-0200-00001D010000}"/>
-    <hyperlink ref="B288" r:id="rId286" xr:uid="{00000000-0004-0000-0200-00001E010000}"/>
-    <hyperlink ref="B289" r:id="rId287" xr:uid="{00000000-0004-0000-0200-00001F010000}"/>
-    <hyperlink ref="B290" r:id="rId288" xr:uid="{00000000-0004-0000-0200-000020010000}"/>
-    <hyperlink ref="B291" r:id="rId289" xr:uid="{00000000-0004-0000-0200-000021010000}"/>
-    <hyperlink ref="B292" r:id="rId290" xr:uid="{00000000-0004-0000-0200-000022010000}"/>
-    <hyperlink ref="B293" r:id="rId291" xr:uid="{00000000-0004-0000-0200-000023010000}"/>
-    <hyperlink ref="B294" r:id="rId292" xr:uid="{00000000-0004-0000-0200-000024010000}"/>
-    <hyperlink ref="B295" r:id="rId293" xr:uid="{00000000-0004-0000-0200-000025010000}"/>
-    <hyperlink ref="B296" r:id="rId294" xr:uid="{00000000-0004-0000-0200-000026010000}"/>
-    <hyperlink ref="B297" r:id="rId295" xr:uid="{00000000-0004-0000-0200-000027010000}"/>
-    <hyperlink ref="B298" r:id="rId296" xr:uid="{00000000-0004-0000-0200-000028010000}"/>
-    <hyperlink ref="B299" r:id="rId297" xr:uid="{00000000-0004-0000-0200-000029010000}"/>
-    <hyperlink ref="B300" r:id="rId298" xr:uid="{00000000-0004-0000-0200-00002A010000}"/>
-    <hyperlink ref="B301" r:id="rId299" xr:uid="{00000000-0004-0000-0200-00002B010000}"/>
-    <hyperlink ref="B40" r:id="rId300" xr:uid="{2B044738-2866-4B62-9B11-D3EC9011B2BA}"/>
+    <hyperlink ref="B134" r:id="rId131" xr:uid="{00000000-0004-0000-0200-000084000000}"/>
+    <hyperlink ref="B135" r:id="rId132" xr:uid="{00000000-0004-0000-0200-000085000000}"/>
+    <hyperlink ref="B136" r:id="rId133" xr:uid="{00000000-0004-0000-0200-000086000000}"/>
+    <hyperlink ref="B137" r:id="rId134" xr:uid="{00000000-0004-0000-0200-000087000000}"/>
+    <hyperlink ref="B138" r:id="rId135" xr:uid="{00000000-0004-0000-0200-000088000000}"/>
+    <hyperlink ref="B139" r:id="rId136" xr:uid="{00000000-0004-0000-0200-000089000000}"/>
+    <hyperlink ref="B140" r:id="rId137" xr:uid="{00000000-0004-0000-0200-00008A000000}"/>
+    <hyperlink ref="B141" r:id="rId138" xr:uid="{00000000-0004-0000-0200-00008B000000}"/>
+    <hyperlink ref="B142" r:id="rId139" xr:uid="{00000000-0004-0000-0200-00008C000000}"/>
+    <hyperlink ref="B143" r:id="rId140" xr:uid="{00000000-0004-0000-0200-00008D000000}"/>
+    <hyperlink ref="B144" r:id="rId141" xr:uid="{00000000-0004-0000-0200-00008E000000}"/>
+    <hyperlink ref="B145" r:id="rId142" xr:uid="{00000000-0004-0000-0200-00008F000000}"/>
+    <hyperlink ref="B146" r:id="rId143" xr:uid="{00000000-0004-0000-0200-000090000000}"/>
+    <hyperlink ref="B147" r:id="rId144" xr:uid="{00000000-0004-0000-0200-000091000000}"/>
+    <hyperlink ref="B148" r:id="rId145" xr:uid="{00000000-0004-0000-0200-000092000000}"/>
+    <hyperlink ref="B149" r:id="rId146" xr:uid="{00000000-0004-0000-0200-000093000000}"/>
+    <hyperlink ref="B150" r:id="rId147" xr:uid="{00000000-0004-0000-0200-000094000000}"/>
+    <hyperlink ref="B151" r:id="rId148" xr:uid="{00000000-0004-0000-0200-000095000000}"/>
+    <hyperlink ref="B152" r:id="rId149" xr:uid="{00000000-0004-0000-0200-000096000000}"/>
+    <hyperlink ref="B153" r:id="rId150" xr:uid="{00000000-0004-0000-0200-000097000000}"/>
+    <hyperlink ref="B154" r:id="rId151" xr:uid="{00000000-0004-0000-0200-000098000000}"/>
+    <hyperlink ref="B155" r:id="rId152" xr:uid="{00000000-0004-0000-0200-000099000000}"/>
+    <hyperlink ref="B156" r:id="rId153" xr:uid="{00000000-0004-0000-0200-00009A000000}"/>
+    <hyperlink ref="B157" r:id="rId154" xr:uid="{00000000-0004-0000-0200-00009B000000}"/>
+    <hyperlink ref="B158" r:id="rId155" xr:uid="{00000000-0004-0000-0200-00009C000000}"/>
+    <hyperlink ref="B159" r:id="rId156" xr:uid="{00000000-0004-0000-0200-00009D000000}"/>
+    <hyperlink ref="B160" r:id="rId157" xr:uid="{00000000-0004-0000-0200-00009E000000}"/>
+    <hyperlink ref="B161" r:id="rId158" xr:uid="{00000000-0004-0000-0200-00009F000000}"/>
+    <hyperlink ref="B162" r:id="rId159" xr:uid="{00000000-0004-0000-0200-0000A0000000}"/>
+    <hyperlink ref="B163" r:id="rId160" xr:uid="{00000000-0004-0000-0200-0000A1000000}"/>
+    <hyperlink ref="B164" r:id="rId161" xr:uid="{00000000-0004-0000-0200-0000A2000000}"/>
+    <hyperlink ref="B165" r:id="rId162" xr:uid="{00000000-0004-0000-0200-0000A3000000}"/>
+    <hyperlink ref="B166" r:id="rId163" xr:uid="{00000000-0004-0000-0200-0000A4000000}"/>
+    <hyperlink ref="B167" r:id="rId164" xr:uid="{00000000-0004-0000-0200-0000A5000000}"/>
+    <hyperlink ref="B168" r:id="rId165" xr:uid="{00000000-0004-0000-0200-0000A6000000}"/>
+    <hyperlink ref="B169" r:id="rId166" xr:uid="{00000000-0004-0000-0200-0000A7000000}"/>
+    <hyperlink ref="B170" r:id="rId167" xr:uid="{00000000-0004-0000-0200-0000A8000000}"/>
+    <hyperlink ref="B171" r:id="rId168" xr:uid="{00000000-0004-0000-0200-0000A9000000}"/>
+    <hyperlink ref="B172" r:id="rId169" xr:uid="{00000000-0004-0000-0200-0000AA000000}"/>
+    <hyperlink ref="B173" r:id="rId170" xr:uid="{00000000-0004-0000-0200-0000AB000000}"/>
+    <hyperlink ref="B174" r:id="rId171" xr:uid="{00000000-0004-0000-0200-0000AC000000}"/>
+    <hyperlink ref="B175" r:id="rId172" xr:uid="{00000000-0004-0000-0200-0000AD000000}"/>
+    <hyperlink ref="B176" r:id="rId173" xr:uid="{00000000-0004-0000-0200-0000AE000000}"/>
+    <hyperlink ref="B177" r:id="rId174" xr:uid="{00000000-0004-0000-0200-0000AF000000}"/>
+    <hyperlink ref="B178" r:id="rId175" xr:uid="{00000000-0004-0000-0200-0000B0000000}"/>
+    <hyperlink ref="B179" r:id="rId176" xr:uid="{00000000-0004-0000-0200-0000B1000000}"/>
+    <hyperlink ref="B180" r:id="rId177" xr:uid="{00000000-0004-0000-0200-0000B2000000}"/>
+    <hyperlink ref="B181" r:id="rId178" xr:uid="{00000000-0004-0000-0200-0000B3000000}"/>
+    <hyperlink ref="B182" r:id="rId179" xr:uid="{00000000-0004-0000-0200-0000B4000000}"/>
+    <hyperlink ref="B183" r:id="rId180" xr:uid="{00000000-0004-0000-0200-0000B5000000}"/>
+    <hyperlink ref="B184" r:id="rId181" xr:uid="{00000000-0004-0000-0200-0000B6000000}"/>
+    <hyperlink ref="B185" r:id="rId182" xr:uid="{00000000-0004-0000-0200-0000B7000000}"/>
+    <hyperlink ref="B186" r:id="rId183" xr:uid="{00000000-0004-0000-0200-0000B8000000}"/>
+    <hyperlink ref="B187" r:id="rId184" xr:uid="{00000000-0004-0000-0200-0000B9000000}"/>
+    <hyperlink ref="B188" r:id="rId185" xr:uid="{00000000-0004-0000-0200-0000BA000000}"/>
+    <hyperlink ref="B189" r:id="rId186" xr:uid="{00000000-0004-0000-0200-0000BB000000}"/>
+    <hyperlink ref="B190" r:id="rId187" xr:uid="{00000000-0004-0000-0200-0000BC000000}"/>
+    <hyperlink ref="B191" r:id="rId188" xr:uid="{00000000-0004-0000-0200-0000BD000000}"/>
+    <hyperlink ref="B192" r:id="rId189" xr:uid="{00000000-0004-0000-0200-0000BE000000}"/>
+    <hyperlink ref="B193" r:id="rId190" xr:uid="{00000000-0004-0000-0200-0000BF000000}"/>
+    <hyperlink ref="B194" r:id="rId191" xr:uid="{00000000-0004-0000-0200-0000C0000000}"/>
+    <hyperlink ref="B195" r:id="rId192" xr:uid="{00000000-0004-0000-0200-0000C1000000}"/>
+    <hyperlink ref="B196" r:id="rId193" xr:uid="{00000000-0004-0000-0200-0000C2000000}"/>
+    <hyperlink ref="B197" r:id="rId194" xr:uid="{00000000-0004-0000-0200-0000C3000000}"/>
+    <hyperlink ref="B198" r:id="rId195" xr:uid="{00000000-0004-0000-0200-0000C4000000}"/>
+    <hyperlink ref="B199" r:id="rId196" xr:uid="{00000000-0004-0000-0200-0000C5000000}"/>
+    <hyperlink ref="B200" r:id="rId197" xr:uid="{00000000-0004-0000-0200-0000C6000000}"/>
+    <hyperlink ref="B201" r:id="rId198" xr:uid="{00000000-0004-0000-0200-0000C7000000}"/>
+    <hyperlink ref="B202" r:id="rId199" xr:uid="{00000000-0004-0000-0200-0000C8000000}"/>
+    <hyperlink ref="B203" r:id="rId200" xr:uid="{00000000-0004-0000-0200-0000C9000000}"/>
+    <hyperlink ref="B204" r:id="rId201" xr:uid="{00000000-0004-0000-0200-0000CA000000}"/>
+    <hyperlink ref="B205" r:id="rId202" xr:uid="{00000000-0004-0000-0200-0000CB000000}"/>
+    <hyperlink ref="B206" r:id="rId203" xr:uid="{00000000-0004-0000-0200-0000CC000000}"/>
+    <hyperlink ref="B207" r:id="rId204" xr:uid="{00000000-0004-0000-0200-0000CD000000}"/>
+    <hyperlink ref="B208" r:id="rId205" xr:uid="{00000000-0004-0000-0200-0000CE000000}"/>
+    <hyperlink ref="B209" r:id="rId206" xr:uid="{00000000-0004-0000-0200-0000CF000000}"/>
+    <hyperlink ref="B210" r:id="rId207" xr:uid="{00000000-0004-0000-0200-0000D0000000}"/>
+    <hyperlink ref="B211" r:id="rId208" xr:uid="{00000000-0004-0000-0200-0000D1000000}"/>
+    <hyperlink ref="B212" r:id="rId209" xr:uid="{00000000-0004-0000-0200-0000D2000000}"/>
+    <hyperlink ref="B213" r:id="rId210" xr:uid="{00000000-0004-0000-0200-0000D3000000}"/>
+    <hyperlink ref="B214" r:id="rId211" xr:uid="{00000000-0004-0000-0200-0000D4000000}"/>
+    <hyperlink ref="B215" r:id="rId212" xr:uid="{00000000-0004-0000-0200-0000D5000000}"/>
+    <hyperlink ref="B216" r:id="rId213" xr:uid="{00000000-0004-0000-0200-0000D6000000}"/>
+    <hyperlink ref="B217" r:id="rId214" xr:uid="{00000000-0004-0000-0200-0000D7000000}"/>
+    <hyperlink ref="B218" r:id="rId215" xr:uid="{00000000-0004-0000-0200-0000D8000000}"/>
+    <hyperlink ref="B219" r:id="rId216" xr:uid="{00000000-0004-0000-0200-0000D9000000}"/>
+    <hyperlink ref="B220" r:id="rId217" xr:uid="{00000000-0004-0000-0200-0000DA000000}"/>
+    <hyperlink ref="B221" r:id="rId218" xr:uid="{00000000-0004-0000-0200-0000DB000000}"/>
+    <hyperlink ref="B222" r:id="rId219" xr:uid="{00000000-0004-0000-0200-0000DC000000}"/>
+    <hyperlink ref="B223" r:id="rId220" xr:uid="{00000000-0004-0000-0200-0000DD000000}"/>
+    <hyperlink ref="B224" r:id="rId221" xr:uid="{00000000-0004-0000-0200-0000DE000000}"/>
+    <hyperlink ref="B225" r:id="rId222" xr:uid="{00000000-0004-0000-0200-0000DF000000}"/>
+    <hyperlink ref="B226" r:id="rId223" xr:uid="{00000000-0004-0000-0200-0000E0000000}"/>
+    <hyperlink ref="B227" r:id="rId224" xr:uid="{00000000-0004-0000-0200-0000E1000000}"/>
+    <hyperlink ref="B228" r:id="rId225" xr:uid="{00000000-0004-0000-0200-0000E2000000}"/>
+    <hyperlink ref="B229" r:id="rId226" xr:uid="{00000000-0004-0000-0200-0000E3000000}"/>
+    <hyperlink ref="B230" r:id="rId227" xr:uid="{00000000-0004-0000-0200-0000E4000000}"/>
+    <hyperlink ref="B231" r:id="rId228" xr:uid="{00000000-0004-0000-0200-0000E5000000}"/>
+    <hyperlink ref="B232" r:id="rId229" xr:uid="{00000000-0004-0000-0200-0000E6000000}"/>
+    <hyperlink ref="B233" r:id="rId230" xr:uid="{00000000-0004-0000-0200-0000E7000000}"/>
+    <hyperlink ref="B234" r:id="rId231" xr:uid="{00000000-0004-0000-0200-0000E8000000}"/>
+    <hyperlink ref="B235" r:id="rId232" xr:uid="{00000000-0004-0000-0200-0000E9000000}"/>
+    <hyperlink ref="B236" r:id="rId233" xr:uid="{00000000-0004-0000-0200-0000EA000000}"/>
+    <hyperlink ref="B237" r:id="rId234" xr:uid="{00000000-0004-0000-0200-0000EB000000}"/>
+    <hyperlink ref="B238" r:id="rId235" xr:uid="{00000000-0004-0000-0200-0000EC000000}"/>
+    <hyperlink ref="B239" r:id="rId236" xr:uid="{00000000-0004-0000-0200-0000ED000000}"/>
+    <hyperlink ref="B240" r:id="rId237" xr:uid="{00000000-0004-0000-0200-0000EE000000}"/>
+    <hyperlink ref="B241" r:id="rId238" xr:uid="{00000000-0004-0000-0200-0000EF000000}"/>
+    <hyperlink ref="B242" r:id="rId239" xr:uid="{00000000-0004-0000-0200-0000F0000000}"/>
+    <hyperlink ref="B243" r:id="rId240" xr:uid="{00000000-0004-0000-0200-0000F1000000}"/>
+    <hyperlink ref="B244" r:id="rId241" xr:uid="{00000000-0004-0000-0200-0000F2000000}"/>
+    <hyperlink ref="B245" r:id="rId242" xr:uid="{00000000-0004-0000-0200-0000F3000000}"/>
+    <hyperlink ref="B246" r:id="rId243" xr:uid="{00000000-0004-0000-0200-0000F4000000}"/>
+    <hyperlink ref="B247" r:id="rId244" xr:uid="{00000000-0004-0000-0200-0000F5000000}"/>
+    <hyperlink ref="B248" r:id="rId245" xr:uid="{00000000-0004-0000-0200-0000F6000000}"/>
+    <hyperlink ref="B249" r:id="rId246" xr:uid="{00000000-0004-0000-0200-0000F7000000}"/>
+    <hyperlink ref="B250" r:id="rId247" xr:uid="{00000000-0004-0000-0200-0000F8000000}"/>
+    <hyperlink ref="B251" r:id="rId248" xr:uid="{00000000-0004-0000-0200-0000F9000000}"/>
+    <hyperlink ref="B252" r:id="rId249" xr:uid="{00000000-0004-0000-0200-0000FA000000}"/>
+    <hyperlink ref="B253" r:id="rId250" xr:uid="{00000000-0004-0000-0200-0000FB000000}"/>
+    <hyperlink ref="B254" r:id="rId251" xr:uid="{00000000-0004-0000-0200-0000FC000000}"/>
+    <hyperlink ref="B255" r:id="rId252" xr:uid="{00000000-0004-0000-0200-0000FD000000}"/>
+    <hyperlink ref="B256" r:id="rId253" xr:uid="{00000000-0004-0000-0200-0000FE000000}"/>
+    <hyperlink ref="B257" r:id="rId254" xr:uid="{00000000-0004-0000-0200-0000FF000000}"/>
+    <hyperlink ref="B258" r:id="rId255" xr:uid="{00000000-0004-0000-0200-000000010000}"/>
+    <hyperlink ref="B259" r:id="rId256" xr:uid="{00000000-0004-0000-0200-000001010000}"/>
+    <hyperlink ref="B260" r:id="rId257" xr:uid="{00000000-0004-0000-0200-000002010000}"/>
+    <hyperlink ref="B261" r:id="rId258" xr:uid="{00000000-0004-0000-0200-000003010000}"/>
+    <hyperlink ref="B262" r:id="rId259" xr:uid="{00000000-0004-0000-0200-000004010000}"/>
+    <hyperlink ref="B263" r:id="rId260" xr:uid="{00000000-0004-0000-0200-000005010000}"/>
+    <hyperlink ref="B264" r:id="rId261" xr:uid="{00000000-0004-0000-0200-000006010000}"/>
+    <hyperlink ref="B265" r:id="rId262" xr:uid="{00000000-0004-0000-0200-000007010000}"/>
+    <hyperlink ref="B266" r:id="rId263" xr:uid="{00000000-0004-0000-0200-000008010000}"/>
+    <hyperlink ref="B267" r:id="rId264" xr:uid="{00000000-0004-0000-0200-000009010000}"/>
+    <hyperlink ref="B268" r:id="rId265" xr:uid="{00000000-0004-0000-0200-00000A010000}"/>
+    <hyperlink ref="B269" r:id="rId266" xr:uid="{00000000-0004-0000-0200-00000B010000}"/>
+    <hyperlink ref="B270" r:id="rId267" xr:uid="{00000000-0004-0000-0200-00000C010000}"/>
+    <hyperlink ref="B271" r:id="rId268" xr:uid="{00000000-0004-0000-0200-00000D010000}"/>
+    <hyperlink ref="B272" r:id="rId269" xr:uid="{00000000-0004-0000-0200-00000E010000}"/>
+    <hyperlink ref="B273" r:id="rId270" xr:uid="{00000000-0004-0000-0200-00000F010000}"/>
+    <hyperlink ref="B274" r:id="rId271" xr:uid="{00000000-0004-0000-0200-000010010000}"/>
+    <hyperlink ref="B275" r:id="rId272" xr:uid="{00000000-0004-0000-0200-000011010000}"/>
+    <hyperlink ref="B276" r:id="rId273" xr:uid="{00000000-0004-0000-0200-000012010000}"/>
+    <hyperlink ref="B277" r:id="rId274" xr:uid="{00000000-0004-0000-0200-000013010000}"/>
+    <hyperlink ref="B278" r:id="rId275" xr:uid="{00000000-0004-0000-0200-000014010000}"/>
+    <hyperlink ref="B279" r:id="rId276" xr:uid="{00000000-0004-0000-0200-000015010000}"/>
+    <hyperlink ref="B280" r:id="rId277" xr:uid="{00000000-0004-0000-0200-000016010000}"/>
+    <hyperlink ref="B281" r:id="rId278" xr:uid="{00000000-0004-0000-0200-000017010000}"/>
+    <hyperlink ref="B282" r:id="rId279" xr:uid="{00000000-0004-0000-0200-000018010000}"/>
+    <hyperlink ref="B283" r:id="rId280" xr:uid="{00000000-0004-0000-0200-000019010000}"/>
+    <hyperlink ref="B284" r:id="rId281" xr:uid="{00000000-0004-0000-0200-00001A010000}"/>
+    <hyperlink ref="B285" r:id="rId282" xr:uid="{00000000-0004-0000-0200-00001B010000}"/>
+    <hyperlink ref="B286" r:id="rId283" xr:uid="{00000000-0004-0000-0200-00001C010000}"/>
+    <hyperlink ref="B287" r:id="rId284" xr:uid="{00000000-0004-0000-0200-00001D010000}"/>
+    <hyperlink ref="B288" r:id="rId285" xr:uid="{00000000-0004-0000-0200-00001E010000}"/>
+    <hyperlink ref="B289" r:id="rId286" xr:uid="{00000000-0004-0000-0200-00001F010000}"/>
+    <hyperlink ref="B290" r:id="rId287" xr:uid="{00000000-0004-0000-0200-000020010000}"/>
+    <hyperlink ref="B291" r:id="rId288" xr:uid="{00000000-0004-0000-0200-000021010000}"/>
+    <hyperlink ref="B292" r:id="rId289" xr:uid="{00000000-0004-0000-0200-000022010000}"/>
+    <hyperlink ref="B293" r:id="rId290" xr:uid="{00000000-0004-0000-0200-000023010000}"/>
+    <hyperlink ref="B294" r:id="rId291" xr:uid="{00000000-0004-0000-0200-000024010000}"/>
+    <hyperlink ref="B295" r:id="rId292" xr:uid="{00000000-0004-0000-0200-000025010000}"/>
+    <hyperlink ref="B296" r:id="rId293" xr:uid="{00000000-0004-0000-0200-000026010000}"/>
+    <hyperlink ref="B297" r:id="rId294" xr:uid="{00000000-0004-0000-0200-000027010000}"/>
+    <hyperlink ref="B298" r:id="rId295" xr:uid="{00000000-0004-0000-0200-000028010000}"/>
+    <hyperlink ref="B299" r:id="rId296" xr:uid="{00000000-0004-0000-0200-000029010000}"/>
+    <hyperlink ref="B300" r:id="rId297" xr:uid="{00000000-0004-0000-0200-00002A010000}"/>
+    <hyperlink ref="B301" r:id="rId298" xr:uid="{00000000-0004-0000-0200-00002B010000}"/>
+    <hyperlink ref="B40" r:id="rId299" xr:uid="{2B044738-2866-4B62-9B11-D3EC9011B2BA}"/>
+    <hyperlink ref="B133" r:id="rId300" xr:uid="{00000000-0004-0000-0200-000083000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
